--- a/Tabla y Grafica Algoritmos de ordenamiento.xlsx
+++ b/Tabla y Grafica Algoritmos de ordenamiento.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="5">
   <si>
     <t>Longitud del Arreglo</t>
   </si>
@@ -37,7 +37,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -45,16 +45,30 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor theme="6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -62,13 +76,53 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="6" tint="0.39997558519241921"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="6" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="6" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="6" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="6" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="6" tint="0.39997558519241921"/>
+      </right>
+      <top style="thin">
+        <color theme="6" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="6" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2694,11 +2748,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="63673856"/>
-        <c:axId val="63677952"/>
+        <c:axId val="77932416"/>
+        <c:axId val="77933952"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="63673856"/>
+        <c:axId val="77932416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2707,7 +2761,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="63677952"/>
+        <c:crossAx val="77933952"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2715,7 +2769,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="63677952"/>
+        <c:axId val="77933952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2745,7 +2799,331 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="63673856"/>
+        <c:crossAx val="77932416"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="es-MX"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-MX"/>
+              <a:t>Algoritmos</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="es-MX" baseline="0"/>
+              <a:t> de ordenamiento</a:t>
+            </a:r>
+            <a:endParaRPr lang="es-MX"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja1!$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Bubble Sort</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja1!$H$2:$H$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>361</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1521</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6241</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25281</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>101761</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>408321</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja1!$I$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Insertion Sort</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja1!$I$2:$I$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>408</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1637</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6429</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>25774</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>102686</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja1!$J$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Selection Sort</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja1!$J$2:$J$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>780</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3160</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12720</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>51040</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>204480</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja1!$K$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Quick Sort</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja1!$K$2:$K$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>319</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>639</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="28082944"/>
+        <c:axId val="28084480"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="28082944"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="#,##0_);\(#,##0\)" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="28084480"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="28084480"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-MX"/>
+                  <a:t>Operaciones</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="28082944"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2772,15 +3150,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>409575</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>47626</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2796,6 +3174,36 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="1 Gráfico"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3105,10 +3513,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E204"/>
+  <dimension ref="A1:K204"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:E204"/>
+    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1:K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3120,7 +3528,7 @@
     <col min="5" max="5" width="12.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3136,8 +3544,23 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>10</v>
       </c>
@@ -3153,8 +3576,28 @@
       <c r="E2">
         <v>9</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G2">
+        <f>MEDIAN(A2:A30)</f>
+        <v>10</v>
+      </c>
+      <c r="H2">
+        <f>MEDIAN(B2:B30)</f>
+        <v>81</v>
+      </c>
+      <c r="I2">
+        <f>MEDIAN(C2:C30)</f>
+        <v>30</v>
+      </c>
+      <c r="J2">
+        <f>MEDIAN(D2:D30)</f>
+        <v>45</v>
+      </c>
+      <c r="K2">
+        <f>MEDIAN(E2:E30)</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>10</v>
       </c>
@@ -3170,8 +3613,28 @@
       <c r="E3">
         <v>9</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G3">
+        <f>MEDIAN(A31:A59)</f>
+        <v>20</v>
+      </c>
+      <c r="H3">
+        <f>MEDIAN(B31:B59)</f>
+        <v>361</v>
+      </c>
+      <c r="I3">
+        <f>MEDIAN(C31:C59)</f>
+        <v>102</v>
+      </c>
+      <c r="J3">
+        <f>MEDIAN(D31:D59)</f>
+        <v>190</v>
+      </c>
+      <c r="K3">
+        <f>MEDIAN(E31:E59)</f>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>10</v>
       </c>
@@ -3187,8 +3650,28 @@
       <c r="E4">
         <v>9</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G4">
+        <f>MEDIAN(A60:A88)</f>
+        <v>40</v>
+      </c>
+      <c r="H4">
+        <f>MEDIAN(B60:B88)</f>
+        <v>1521</v>
+      </c>
+      <c r="I4">
+        <f>MEDIAN(C60:C88)</f>
+        <v>408</v>
+      </c>
+      <c r="J4">
+        <f>MEDIAN(D60:D88)</f>
+        <v>780</v>
+      </c>
+      <c r="K4">
+        <f>MEDIAN(E60:E88)</f>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>10</v>
       </c>
@@ -3204,8 +3687,28 @@
       <c r="E5">
         <v>9</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G5">
+        <f>MEDIAN(A89:A117)</f>
+        <v>80</v>
+      </c>
+      <c r="H5">
+        <f>MEDIAN(B89:B117)</f>
+        <v>6241</v>
+      </c>
+      <c r="I5">
+        <f>MEDIAN(C89:C117)</f>
+        <v>1637</v>
+      </c>
+      <c r="J5">
+        <f>MEDIAN(D89:D117)</f>
+        <v>3160</v>
+      </c>
+      <c r="K5">
+        <f>MEDIAN(E89:E117)</f>
+        <v>79</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>10</v>
       </c>
@@ -3221,8 +3724,28 @@
       <c r="E6">
         <v>9</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G6">
+        <f>MEDIAN(A118:A146)</f>
+        <v>160</v>
+      </c>
+      <c r="H6">
+        <f>MEDIAN(B118:B146)</f>
+        <v>25281</v>
+      </c>
+      <c r="I6">
+        <f>MEDIAN(C118:C146)</f>
+        <v>6429</v>
+      </c>
+      <c r="J6">
+        <f>MEDIAN(D118:D146)</f>
+        <v>12720</v>
+      </c>
+      <c r="K6">
+        <f>MEDIAN(E118:E146)</f>
+        <v>159</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>10</v>
       </c>
@@ -3238,8 +3761,28 @@
       <c r="E7">
         <v>9</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G7">
+        <f>MEDIAN(A147:A175)</f>
+        <v>320</v>
+      </c>
+      <c r="H7">
+        <f>MEDIAN(B147:B175)</f>
+        <v>101761</v>
+      </c>
+      <c r="I7">
+        <f>MEDIAN(C147:C175)</f>
+        <v>25774</v>
+      </c>
+      <c r="J7">
+        <f>MEDIAN(D147:D175)</f>
+        <v>51040</v>
+      </c>
+      <c r="K7">
+        <f>MEDIAN(E147:E175)</f>
+        <v>319</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>10</v>
       </c>
@@ -3255,8 +3798,28 @@
       <c r="E8">
         <v>9</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G8">
+        <f>MEDIAN(A176:A204)</f>
+        <v>640</v>
+      </c>
+      <c r="H8">
+        <f>MEDIAN(B176:B204)</f>
+        <v>408321</v>
+      </c>
+      <c r="I8">
+        <f>MEDIAN(C176:C204)</f>
+        <v>102686</v>
+      </c>
+      <c r="J8">
+        <f>MEDIAN(D176:D204)</f>
+        <v>204480</v>
+      </c>
+      <c r="K8">
+        <f>MEDIAN(E176:E204)</f>
+        <v>639</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>10</v>
       </c>
@@ -3273,7 +3836,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>10</v>
       </c>
@@ -3290,7 +3853,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -3307,7 +3870,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>10</v>
       </c>
@@ -3324,7 +3887,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>10</v>
       </c>
@@ -3341,7 +3904,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>10</v>
       </c>
@@ -3358,7 +3921,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>10</v>
       </c>
@@ -3375,7 +3938,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>10</v>
       </c>
